--- a/QA/testCaseLoadTesting.xlsx
+++ b/QA/testCaseLoadTesting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zork/Desktop/swift/StoreRoom/QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668F44F1-5EE2-2546-9C0E-1C86016119FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1193A698-A149-3041-83B3-D104F312220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7A968430-7FC1-B349-A0D4-34F5C039606C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Проект</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>В одном кладовке сохранено 2300 объектов. Пролистывает максимум 700 объектов. Далее приложение выгружается системой из-за слишком много потребленной памяти</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -192,9 +195,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,6 +202,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +565,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +613,7 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
       <c r="D4" s="1"/>
@@ -643,28 +649,31 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
